--- a/docs/accounting/v8-v9/03_expense.xlsx
+++ b/docs/accounting/v8-v9/03_expense.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diako/project/omega/docs/accounting/v8-v9/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44C26C3-B506-8D4E-84E9-533E24073A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Income Statement" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Balance Sheet" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="accounts" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="item_categories" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="items" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="invoices" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="invoices_items" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="item_variations" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="inventories" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="transactions" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="transaction_slots" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="invoice_transactions" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="customers" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="settings" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Scenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
+    <sheet name="Balance Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="accounts" sheetId="4" r:id="rId4"/>
+    <sheet name="item_categories" sheetId="5" r:id="rId5"/>
+    <sheet name="items" sheetId="6" r:id="rId6"/>
+    <sheet name="invoices" sheetId="7" r:id="rId7"/>
+    <sheet name="invoices_items" sheetId="8" r:id="rId8"/>
+    <sheet name="item_variations" sheetId="9" r:id="rId9"/>
+    <sheet name="inventories" sheetId="10" r:id="rId10"/>
+    <sheet name="transactions" sheetId="11" r:id="rId11"/>
+    <sheet name="transaction_slots" sheetId="12" r:id="rId12"/>
+    <sheet name="invoice_transactions" sheetId="13" r:id="rId13"/>
+    <sheet name="customers" sheetId="14" r:id="rId14"/>
+    <sheet name="settings" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -36,217 +47,217 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="258">
   <si>
-    <t xml:space="preserve">Prerequisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega v8 → v9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch-first as a new branch account then Cashier-first as a new Agent Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Omega v8 → v9</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Branch-first as a new branch account then Cashier-first as a new Agent Account</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t xml:space="preserve">create an account for Ericson Company as a supplier </t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create new item category for holding information of ONT under Ericson company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define ONT as an item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new buy invoice, buying from Ericson and save items in Branch-first, Purchase 100 ONT from Ericson in price of each $50</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>create new item category for holding information of ONT under Ericson company</t>
+  </si>
+  <si>
+    <t>item_categories</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>define ONT as an item</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>new buy invoice, buying from Ericson and save items in Branch-first, Purchase 100 ONT from Ericson in price of each $50</t>
   </si>
   <si>
     <t xml:space="preserve">- create new invoice </t>
   </si>
   <si>
-    <t xml:space="preserve">invoices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new invoice_item and record it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- check item variation, if not exist create it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_variations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- remove 100qty ONT 844 from Ericson's account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- add 100qty ONT to branch-first's account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - credit Ericson's account with $5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transaction_slots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - debit Branch-first's account with $5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - connect transaction to invoice by adding new record to invoice_transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invest $10000 in the company from owner, (date is manual and belong to 2019-05-05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create capital account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create cash01 account, it is under cash account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- transfer $10000 from capital to cash01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - create transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - - credit Capital 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - - debit cash01 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_sell_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell 5 item (ONT 844) to a customer named Saman on cash each on $60 and saman paid in cash</t>
+    <t>invoices</t>
+  </si>
+  <si>
+    <t>- create new invoice_item and record it</t>
+  </si>
+  <si>
+    <t>invoice_items</t>
+  </si>
+  <si>
+    <t>- check item variation, if not exist create it</t>
+  </si>
+  <si>
+    <t>item_variations</t>
+  </si>
+  <si>
+    <t>- remove 100qty ONT 844 from Ericson's account</t>
+  </si>
+  <si>
+    <t>inventories</t>
+  </si>
+  <si>
+    <t>- add 100qty ONT to branch-first's account</t>
+  </si>
+  <si>
+    <t>- create transaction</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t>- - credit Ericson's account with $5000</t>
+  </si>
+  <si>
+    <t>transaction_slots</t>
+  </si>
+  <si>
+    <t>- - debit Branch-first's account with $5000</t>
+  </si>
+  <si>
+    <t>- - connect transaction to invoice by adding new record to invoice_transactions</t>
+  </si>
+  <si>
+    <t>invoice_transactions</t>
+  </si>
+  <si>
+    <t>balance sheet</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Invest $10000 in the company from owner, (date is manual and belong to 2019-05-05)</t>
+  </si>
+  <si>
+    <t>- create capital account</t>
+  </si>
+  <si>
+    <t>- create cash01 account, it is under cash account</t>
+  </si>
+  <si>
+    <t>- transfer $10000 from capital to cash01</t>
+  </si>
+  <si>
+    <t>- - create transaction</t>
+  </si>
+  <si>
+    <t>- - - credit Capital 10000</t>
+  </si>
+  <si>
+    <t>- - - debit cash01 10000</t>
+  </si>
+  <si>
+    <t>02_sell_item</t>
+  </si>
+  <si>
+    <t>Sell 5 item (ONT 844) to a customer named Saman on cash each on $60 and saman paid in cash</t>
   </si>
   <si>
     <t xml:space="preserve">- create customers under accounts receivable and inside that </t>
   </si>
   <si>
-    <t xml:space="preserve">- create customer related to previous action in customers table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new sell-invoice for saman in the branch-first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - add items record to invoice_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- decrease qty from branch-first in the inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- increase qty for saman's account in the inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new transaction for record inventory change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - credit branch-first's account with 250$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - debit default COGS account with 250$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - save transaction connection in invoice_transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new transaction for record sale &amp; income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - credit default sales account with $300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - debit saman with $300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new transaction for record saman's payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - credit saman's account with $300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - debit cashier-first account with $300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - save transaction's connection in invoice_transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income statement</t>
+    <t>- create customer related to previous action in customers table</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>- create new sell-invoice for saman in the branch-first</t>
+  </si>
+  <si>
+    <t>- - add items record to invoice_items</t>
+  </si>
+  <si>
+    <t>- decrease qty from branch-first in the inventory</t>
+  </si>
+  <si>
+    <t>- increase qty for saman's account in the inventory</t>
+  </si>
+  <si>
+    <t>- create new transaction for record inventory change</t>
+  </si>
+  <si>
+    <t>- - credit branch-first's account with 250$</t>
+  </si>
+  <si>
+    <t>- - debit default COGS account with 250$</t>
+  </si>
+  <si>
+    <t>- - save transaction connection in invoice_transactions</t>
+  </si>
+  <si>
+    <t>- create new transaction for record sale &amp; income</t>
+  </si>
+  <si>
+    <t>- - credit default sales account with $300</t>
+  </si>
+  <si>
+    <t>- - debit saman with $300</t>
+  </si>
+  <si>
+    <t>- create new transaction for record saman's payment</t>
+  </si>
+  <si>
+    <t>- - credit saman's account with $300</t>
+  </si>
+  <si>
+    <t>- - debit cashier-first account with $300</t>
+  </si>
+  <si>
+    <t>- - save transaction's connection in invoice_transactions</t>
+  </si>
+  <si>
+    <t>income statement</t>
   </si>
   <si>
     <t xml:space="preserve">Income Statement </t>
   </si>
   <si>
-    <t xml:space="preserve">create an expense account and name it foods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">under foods create another account and name it tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spend $1000 on tea expense from cash01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- create new transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - credit cash01 by $1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- - debit tea with $1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sales</t>
+    <t>create an expense account and name it foods</t>
+  </si>
+  <si>
+    <t>under foods create another account and name it tea</t>
+  </si>
+  <si>
+    <t>Spend $1000 on tea expense from cash01</t>
+  </si>
+  <si>
+    <t>- create new transaction</t>
+  </si>
+  <si>
+    <t>- - credit cash01 by $1000</t>
+  </si>
+  <si>
+    <t>- - debit tea with $1000</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>sales</t>
   </si>
   <si>
     <t xml:space="preserve">    Begining Inventory</t>
@@ -255,487 +266,487 @@
     <t xml:space="preserve">    Ending Inventory</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost Of Goods Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch-first (inventory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ericson (supplier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash01 (cash)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier-first (employee)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earning should calculated automatically and it should be equal to the net profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+    <t>Cost Of Goods Sold</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Branch-first (inventory)</t>
+  </si>
+  <si>
+    <t>Ericson (supplier)</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Cash01 (cash)</t>
+  </si>
+  <si>
+    <t>Cashier-first (employee)</t>
+  </si>
+  <si>
+    <t>Earning</t>
+  </si>
+  <si>
+    <t>Earning should calculated automatically and it should be equal to the net profit</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>node_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">code </t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deleted_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch-first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show-room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cashier-first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ericson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Asset</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Branch-first</t>
+  </si>
+  <si>
+    <t>show-room</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Cashier-first</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>Ericson</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>Cash01</t>
+  </si>
+  <si>
+    <t>1.Asset</t>
   </si>
   <si>
     <t xml:space="preserve">Account Receivable </t>
   </si>
   <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this should be systemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.Account Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default COGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compnay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ericson’s products</t>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>this should be systemic</t>
+  </si>
+  <si>
+    <t>12.Account Receivable</t>
+  </si>
+  <si>
+    <t>Saman</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5.Income</t>
+  </si>
+  <si>
+    <t>Default Income</t>
+  </si>
+  <si>
+    <t>3.Expense</t>
+  </si>
+  <si>
+    <t>Default Discount</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>Default COGS</t>
+  </si>
+  <si>
+    <t>cogs</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>41.Food</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Item Categories</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Compnay</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Ericson’s products</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Ericson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONT 844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply_inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply_trans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.Branch-first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.Ericson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.Saman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101-20-000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale-cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destination_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.ONT 844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.Saman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_item_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_variation_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owner’s invest 10,000 $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale_inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale_payment</t>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>countation</t>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>2.Ericson</t>
+  </si>
+  <si>
+    <t>ONT 844</t>
+  </si>
+  <si>
+    <t>qty_int</t>
+  </si>
+  <si>
+    <t>best models</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>currency_ratio</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>invoice_number</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>apply_inventory</t>
+  </si>
+  <si>
+    <t>apply_trans</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>6.Branch-first</t>
+  </si>
+  <si>
+    <t>8.Ericson</t>
+  </si>
+  <si>
+    <t>po0001</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>12.Saman</t>
+  </si>
+  <si>
+    <t>101-20-000001</t>
+  </si>
+  <si>
+    <t>sale-cash</t>
+  </si>
+  <si>
+    <t>Invoice_items</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>destination_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>1.ONT 844</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>“”</t>
+  </si>
+  <si>
+    <t>13.Saman</t>
+  </si>
+  <si>
+    <t>invoice_item_id</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>item_variation_id</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>qty_balance</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1.USD</t>
+  </si>
+  <si>
+    <t>buy_inventory</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>owner’s invest 10,000 $</t>
+  </si>
+  <si>
+    <t>sale_inventory</t>
+  </si>
+  <si>
+    <t>sale_income</t>
+  </si>
+  <si>
+    <t>sale_payment</t>
   </si>
   <si>
     <t xml:space="preserve">buying tea for one year </t>
   </si>
   <si>
-    <t xml:space="preserve">transaction_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency_dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency_cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.Cash01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.COGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.Default Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.Cashier-first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.chwarchra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it connects to other table for holding account’s phones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_invoice_location_selection_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice</t>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>currency_dr</t>
+  </si>
+  <si>
+    <t>currency_cr</t>
+  </si>
+  <si>
+    <t>currency_balance</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>9.Capital</t>
+  </si>
+  <si>
+    <t>11.Cash01</t>
+  </si>
+  <si>
+    <t>16.COGS</t>
+  </si>
+  <si>
+    <t>14.Default Income</t>
+  </si>
+  <si>
+    <t>7.Cashier-first</t>
+  </si>
+  <si>
+    <t>18.Tea</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>area_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>1.chwarchra</t>
+  </si>
+  <si>
+    <t>it connects to other table for holding account’s phones</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>updated_by</t>
+  </si>
+  <si>
+    <t>buy_invoice_location_selection_level</t>
+  </si>
+  <si>
+    <t>invoice</t>
   </si>
   <si>
     <r>
@@ -749,13 +760,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">item</t>
+      <t>item</t>
     </r>
     <r>
       <rPr>
@@ -768,61 +779,61 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">invoice</t>
+      <t>invoice</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sell_invoice_location_selection_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_invoice_location_selection_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en is system defined language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company_logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public/logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path of logo, if branch logo won’t defined use this logo for invoices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inventory_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant</t>
+    <t>System</t>
+  </si>
+  <si>
+    <t>sell_invoice_location_selection_level</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>transfer_invoice_location_selection_level</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>en is system defined language</t>
+  </si>
+  <si>
+    <t>company_logo</t>
+  </si>
+  <si>
+    <t>public/logo.png</t>
+  </si>
+  <si>
+    <t>path of logo, if branch logo won’t defined use this logo for invoices</t>
+  </si>
+  <si>
+    <t>inventory_method</t>
+  </si>
+  <si>
+    <t>instant</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">shipping/instant</t>
+      <t>shipping/instant</t>
     </r>
     <r>
       <rPr>
@@ -831,53 +842,50 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, there is two way for inventory, the first one is locking system, which is usefull if we lock the items then transfer them as out, the other one as soon as inventory applied the inventory will saved</t>
+      <t>, there is two way for inventory, the first one is locking system, which is usefull if we lock the items then transfer them as out, the other one as soon as inventory applied the inventory will saved</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">shipping_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice/item, it is used for affect the inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_number_pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_year_series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location_year_series, location_series, series, year_series, fullyear_series, location_fullyear_series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shared_warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shared warehouse mean that a location can has a access to other location’s inventory. In case we choose true, for each branch we should define location_priority. In case of false each branch just has access to it’s inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_discount_account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_income_account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_cost_of_goods_sold</t>
+    <t>shipping_level</t>
+  </si>
+  <si>
+    <t>invoice/item, it is used for affect the inventory</t>
+  </si>
+  <si>
+    <t>invoice_number_pattern</t>
+  </si>
+  <si>
+    <t>location_year_series</t>
+  </si>
+  <si>
+    <t>location_year_series, location_series, series, year_series, fullyear_series, location_fullyear_series</t>
+  </si>
+  <si>
+    <t>shared_warehouse</t>
+  </si>
+  <si>
+    <t>shared warehouse mean that a location can has a access to other location’s inventory. In case we choose true, for each branch we should define location_priority. In case of false each branch just has access to it’s inventory</t>
+  </si>
+  <si>
+    <t>default_discount_account</t>
+  </si>
+  <si>
+    <t>default_income_account</t>
+  </si>
+  <si>
+    <t>default_cost_of_goods_sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0;[Red]\-[$$-409]#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -885,29 +893,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF4C4C4C"/>
       <name val="DejaVu Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -927,7 +919,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -941,7 +933,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FFED1C24"/>
       <name val="Arial"/>
@@ -956,7 +948,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -978,390 +970,211 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1420,633 +1233,942 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF4C4C4C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF999999"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView topLeftCell="A31" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="60.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
+    <col min="4" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="11" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="11" customFormat="1">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="22">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="12">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="14">
         <v>43835</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="12">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="12">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="12">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="12">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="12">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="21.25" customHeight="1">
+      <c r="A28" s="15">
         <v>20</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10" t="n">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16">
         <v>43836</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="15">
         <v>21</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="15">
         <v>22</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="15">
         <v>23</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="15">
         <v>24</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33" s="15">
         <v>25</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
         <v>28</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
         <v>29</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+    <row r="38" spans="1:3">
+      <c r="A38" s="15">
         <v>30</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39" s="15">
         <v>31</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+    <row r="40" spans="1:3">
+      <c r="A40" s="15">
         <v>32</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+    <row r="41" spans="1:3">
+      <c r="A41" s="15">
         <v>33</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+    <row r="42" spans="1:3">
+      <c r="A42" s="15">
         <v>34</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+    <row r="43" spans="1:3">
+      <c r="A43" s="15">
         <v>35</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44" s="15">
         <v>36</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45" s="15">
         <v>37</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+    <row r="46" spans="1:3">
+      <c r="A46" s="15">
         <v>38</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+    <row r="47" spans="1:3">
+      <c r="A47" s="15">
         <v>39</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+    <row r="48" spans="1:3">
+      <c r="A48" s="15">
         <v>40</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:3">
+      <c r="A51" s="7">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:3">
+      <c r="A52" s="7">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:3">
+      <c r="A53" s="7">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:3">
+      <c r="A54" s="7">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:3">
+      <c r="A55" s="7">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:3">
+      <c r="A56" s="7">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2054,40 +2176,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="3.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="58" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9" style="49" customWidth="1"/>
+    <col min="9" max="10" width="11.5" style="49"/>
+    <col min="11" max="11" width="11.5" style="58"/>
+    <col min="12" max="13" width="11.5" style="49"/>
+    <col min="14" max="1022" width="11.5" style="34"/>
+    <col min="1023" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -2119,35 +2238,35 @@
       <c r="K2" s="60"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>5</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="39" t="n">
+      <c r="F3" s="39">
         <v>-100</v>
       </c>
-      <c r="G3" s="39" t="n">
+      <c r="G3" s="39">
         <v>-100</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="42">
         <v>43834</v>
       </c>
-      <c r="I3" s="58" t="n">
+      <c r="I3" s="58">
         <v>1</v>
       </c>
       <c r="J3" s="48"/>
@@ -2155,98 +2274,97 @@
       <c r="O3" s="48"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:1024">
+      <c r="A4" s="52">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="39" t="n">
+      <c r="D4" s="39">
         <v>1</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="39" t="n">
+      <c r="F4" s="39">
         <v>100</v>
       </c>
-      <c r="G4" s="39" t="n">
+      <c r="G4" s="39">
         <v>100</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="42">
         <v>43834</v>
       </c>
-      <c r="I4" s="58" t="n">
+      <c r="I4" s="58">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+    <row r="5" spans="1:1024">
+      <c r="A5" s="52">
         <v>25</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="39">
         <v>1</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="39" t="n">
+      <c r="F5" s="39">
         <v>-5</v>
       </c>
-      <c r="G5" s="39" t="n">
+      <c r="G5" s="39">
         <v>95</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="42">
         <v>43836</v>
       </c>
-      <c r="I5" s="62" t="n">
+      <c r="I5" s="62">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+    <row r="6" spans="1:1024">
+      <c r="A6" s="52">
         <v>26</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="39">
         <v>1</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="39" t="n">
+      <c r="F6" s="39">
         <v>5</v>
       </c>
-      <c r="G6" s="39" t="n">
+      <c r="G6" s="39">
         <v>5</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="42">
         <v>43836</v>
       </c>
-      <c r="I6" s="62" t="n">
+      <c r="I6" s="62">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2254,40 +2372,37 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="10.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="58" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19" style="34" customWidth="1"/>
+    <col min="7" max="7" width="9" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9" style="49" customWidth="1"/>
+    <col min="9" max="10" width="11.5" style="49"/>
+    <col min="11" max="11" width="11.5" style="58"/>
+    <col min="12" max="13" width="11.5" style="49"/>
+    <col min="14" max="1022" width="11.5" style="34"/>
+    <col min="1023" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -2321,20 +2436,20 @@
       <c r="K2" s="60"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>7</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -2344,10 +2459,10 @@
       <c r="G3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="42">
         <v>43834</v>
       </c>
-      <c r="I3" s="42" t="n">
+      <c r="I3" s="42">
         <v>43834</v>
       </c>
       <c r="J3" s="42"/>
@@ -2355,17 +2470,17 @@
       <c r="O3" s="48"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:1024">
+      <c r="A4" s="52">
         <v>16</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="39" t="n">
+      <c r="D4" s="39">
         <v>1</v>
       </c>
       <c r="E4" s="39" t="s">
@@ -2377,25 +2492,25 @@
       <c r="G4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="63" t="n">
+      <c r="H4" s="63">
         <v>43590</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="42">
         <v>43835</v>
       </c>
       <c r="J4" s="51"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+    <row r="5" spans="1:1024">
+      <c r="A5" s="52">
         <v>27</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="39">
         <v>1</v>
       </c>
       <c r="E5" s="39" t="s">
@@ -2405,25 +2520,25 @@
       <c r="G5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="42">
         <v>43836</v>
       </c>
-      <c r="I5" s="42" t="n">
+      <c r="I5" s="42">
         <v>43836</v>
       </c>
       <c r="J5" s="51"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+    <row r="6" spans="1:1024">
+      <c r="A6" s="52">
         <v>31</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="39">
         <v>1</v>
       </c>
       <c r="E6" s="39" t="s">
@@ -2433,25 +2548,25 @@
       <c r="G6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="42">
         <v>43836</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="42">
         <v>43836</v>
       </c>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+    <row r="7" spans="1:1024">
+      <c r="A7" s="52">
         <v>35</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="39">
         <v>1</v>
       </c>
       <c r="E7" s="39" t="s">
@@ -2461,25 +2576,25 @@
       <c r="G7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="42">
         <v>43836</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="42">
         <v>43836</v>
       </c>
       <c r="J7" s="51"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+    <row r="8" spans="1:1024">
+      <c r="A8" s="52">
         <v>44</v>
       </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="34">
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="34" t="n">
+      <c r="D8" s="34">
         <v>1</v>
       </c>
       <c r="E8" s="34" t="s">
@@ -2491,18 +2606,17 @@
       <c r="G8" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="49" t="n">
+      <c r="H8" s="49">
         <v>43837</v>
       </c>
-      <c r="I8" s="48" t="n">
+      <c r="I8" s="48">
         <v>43837</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2510,47 +2624,46 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFAA61A"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="58" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="58" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="49" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="49" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="58" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="16" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="18" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="34"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="12" style="58" customWidth="1"/>
+    <col min="7" max="7" width="14" style="58" customWidth="1"/>
+    <col min="8" max="8" width="7" style="58" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7" style="58" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="49" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="58"/>
+    <col min="16" max="17" width="11.5" style="49"/>
+    <col min="18" max="1023" width="11.5" style="34"/>
+    <col min="1024" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="36"/>
       <c r="E1" s="60"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -2596,46 +2709,46 @@
       <c r="O2" s="60"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="50"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>8</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="64" t="n">
+      <c r="E3" s="64">
         <v>0</v>
       </c>
-      <c r="F3" s="64" t="n">
+      <c r="F3" s="64">
         <v>5000</v>
       </c>
-      <c r="G3" s="64" t="n">
+      <c r="G3" s="64">
         <v>-5000</v>
       </c>
-      <c r="H3" s="64" t="n">
+      <c r="H3" s="64">
         <v>0</v>
       </c>
-      <c r="I3" s="64" t="n">
+      <c r="I3" s="64">
         <v>5000</v>
       </c>
-      <c r="J3" s="64" t="n">
+      <c r="J3" s="64">
         <v>-5000</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="42">
         <v>43834</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="42">
         <v>43834</v>
       </c>
       <c r="N3" s="42"/>
@@ -2643,471 +2756,470 @@
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:1024">
+      <c r="A4" s="52">
         <v>9</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="64" t="n">
+      <c r="E4" s="64">
         <v>5000</v>
       </c>
-      <c r="F4" s="64" t="n">
+      <c r="F4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="64" t="n">
+      <c r="G4" s="64">
         <v>5000</v>
       </c>
-      <c r="H4" s="64" t="n">
+      <c r="H4" s="64">
         <v>5000</v>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="64" t="n">
+      <c r="J4" s="64">
         <v>5000</v>
       </c>
       <c r="K4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="42" t="n">
+      <c r="L4" s="42">
         <v>43834</v>
       </c>
-      <c r="M4" s="42" t="n">
+      <c r="M4" s="42">
         <v>43834</v>
       </c>
       <c r="N4" s="51"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+    <row r="5" spans="1:1024">
+      <c r="A5" s="52">
         <v>17</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="64" t="n">
+      <c r="E5" s="64">
         <v>0</v>
       </c>
-      <c r="F5" s="64" t="n">
+      <c r="F5" s="64">
         <v>10000</v>
       </c>
-      <c r="G5" s="64" t="n">
+      <c r="G5" s="64">
         <v>-10000</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="64">
         <v>0</v>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="64">
         <v>10000</v>
       </c>
-      <c r="J5" s="64" t="n">
+      <c r="J5" s="64">
         <v>-10000</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="42" t="n">
+      <c r="L5" s="42">
         <v>43835</v>
       </c>
-      <c r="M5" s="42" t="n">
+      <c r="M5" s="42">
         <v>43835</v>
       </c>
       <c r="N5" s="51"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+    <row r="6" spans="1:1024">
+      <c r="A6" s="52">
         <v>18</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="39">
         <v>2</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="64" t="n">
+      <c r="E6" s="64">
         <v>10000</v>
       </c>
-      <c r="F6" s="64" t="n">
+      <c r="F6" s="64">
         <v>0</v>
       </c>
-      <c r="G6" s="64" t="n">
+      <c r="G6" s="64">
         <v>10000</v>
       </c>
-      <c r="H6" s="64" t="n">
+      <c r="H6" s="64">
         <v>10000</v>
       </c>
-      <c r="I6" s="64" t="n">
+      <c r="I6" s="64">
         <v>0</v>
       </c>
-      <c r="J6" s="64" t="n">
+      <c r="J6" s="64">
         <v>10000</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="42" t="n">
+      <c r="L6" s="42">
         <v>43835</v>
       </c>
-      <c r="M6" s="42" t="n">
+      <c r="M6" s="42">
         <v>43835</v>
       </c>
       <c r="N6" s="51"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+    <row r="7" spans="1:1024">
+      <c r="A7" s="52">
         <v>28</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="39">
         <v>3</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="64" t="n">
+      <c r="E7" s="64">
         <v>0</v>
       </c>
-      <c r="F7" s="64" t="n">
+      <c r="F7" s="64">
         <v>250</v>
       </c>
-      <c r="G7" s="64" t="n">
+      <c r="G7" s="64">
         <v>4750</v>
       </c>
-      <c r="H7" s="64" t="n">
+      <c r="H7" s="64">
         <v>0</v>
       </c>
-      <c r="I7" s="64" t="n">
+      <c r="I7" s="64">
         <v>250</v>
       </c>
-      <c r="J7" s="64" t="n">
+      <c r="J7" s="64">
         <v>4750</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="42" t="n">
+      <c r="L7" s="42">
         <v>43836</v>
       </c>
-      <c r="M7" s="42" t="n">
+      <c r="M7" s="42">
         <v>43836</v>
       </c>
       <c r="N7" s="51"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+    <row r="8" spans="1:1024">
+      <c r="A8" s="52">
         <v>29</v>
       </c>
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="39">
         <v>6</v>
       </c>
-      <c r="C8" s="39" t="n">
+      <c r="C8" s="39">
         <v>3</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="64" t="n">
+      <c r="E8" s="64">
         <v>250</v>
       </c>
-      <c r="F8" s="64" t="n">
+      <c r="F8" s="64">
         <v>0</v>
       </c>
-      <c r="G8" s="64" t="n">
+      <c r="G8" s="64">
         <v>250</v>
       </c>
-      <c r="H8" s="64" t="n">
+      <c r="H8" s="64">
         <v>250</v>
       </c>
-      <c r="I8" s="64" t="n">
+      <c r="I8" s="64">
         <v>0</v>
       </c>
-      <c r="J8" s="64" t="n">
+      <c r="J8" s="64">
         <v>250</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="42" t="n">
+      <c r="L8" s="42">
         <v>43836</v>
       </c>
-      <c r="M8" s="42" t="n">
+      <c r="M8" s="42">
         <v>43836</v>
       </c>
       <c r="N8" s="51"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="n">
+    <row r="9" spans="1:1024">
+      <c r="A9" s="52">
         <v>32</v>
       </c>
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="39">
         <v>7</v>
       </c>
-      <c r="C9" s="39" t="n">
+      <c r="C9" s="39">
         <v>4</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="64" t="n">
+      <c r="E9" s="64">
         <v>0</v>
       </c>
-      <c r="F9" s="64" t="n">
+      <c r="F9" s="64">
         <v>300</v>
       </c>
-      <c r="G9" s="64" t="n">
+      <c r="G9" s="64">
         <v>-300</v>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="64">
         <v>0</v>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="64">
         <v>300</v>
       </c>
-      <c r="J9" s="64" t="n">
+      <c r="J9" s="64">
         <v>-300</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="42">
         <v>43836</v>
       </c>
-      <c r="M9" s="42" t="n">
+      <c r="M9" s="42">
         <v>43836</v>
       </c>
       <c r="N9" s="51"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="n">
+    <row r="10" spans="1:1024">
+      <c r="A10" s="52">
         <v>33</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="39">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="n">
+      <c r="C10" s="39">
         <v>4</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="64" t="n">
+      <c r="E10" s="64">
         <v>300</v>
       </c>
-      <c r="F10" s="64" t="n">
+      <c r="F10" s="64">
         <v>0</v>
       </c>
-      <c r="G10" s="64" t="n">
+      <c r="G10" s="64">
         <v>300</v>
       </c>
-      <c r="H10" s="64" t="n">
+      <c r="H10" s="64">
         <v>300</v>
       </c>
-      <c r="I10" s="64" t="n">
+      <c r="I10" s="64">
         <v>0</v>
       </c>
-      <c r="J10" s="64" t="n">
+      <c r="J10" s="64">
         <v>300</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="42" t="n">
+      <c r="L10" s="42">
         <v>43836</v>
       </c>
-      <c r="M10" s="42" t="n">
+      <c r="M10" s="42">
         <v>43836</v>
       </c>
       <c r="N10" s="51"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="n">
+    <row r="11" spans="1:1024">
+      <c r="A11" s="52">
         <v>36</v>
       </c>
-      <c r="B11" s="39" t="n">
+      <c r="B11" s="39">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="n">
+      <c r="C11" s="39">
         <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="64" t="n">
+      <c r="E11" s="64">
         <v>0</v>
       </c>
-      <c r="F11" s="64" t="n">
+      <c r="F11" s="64">
         <v>300</v>
       </c>
-      <c r="G11" s="64" t="n">
+      <c r="G11" s="64">
         <v>0</v>
       </c>
-      <c r="H11" s="64" t="n">
+      <c r="H11" s="64">
         <v>0</v>
       </c>
-      <c r="I11" s="64" t="n">
+      <c r="I11" s="64">
         <v>300</v>
       </c>
-      <c r="J11" s="64" t="n">
+      <c r="J11" s="64">
         <v>0</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="42">
         <v>43836</v>
       </c>
-      <c r="M11" s="42" t="n">
+      <c r="M11" s="42">
         <v>43836</v>
       </c>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+    <row r="12" spans="1:1024">
+      <c r="A12" s="52">
         <v>37</v>
       </c>
-      <c r="B12" s="39" t="n">
+      <c r="B12" s="39">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="n">
+      <c r="C12" s="39">
         <v>5</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="64" t="n">
+      <c r="E12" s="64">
         <v>300</v>
       </c>
-      <c r="F12" s="64" t="n">
+      <c r="F12" s="64">
         <v>0</v>
       </c>
-      <c r="G12" s="64" t="n">
+      <c r="G12" s="64">
         <v>300</v>
       </c>
-      <c r="H12" s="64" t="n">
+      <c r="H12" s="64">
         <v>300</v>
       </c>
-      <c r="I12" s="64" t="n">
+      <c r="I12" s="64">
         <v>0</v>
       </c>
-      <c r="J12" s="64" t="n">
+      <c r="J12" s="64">
         <v>300</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="42" t="n">
+      <c r="L12" s="42">
         <v>43836</v>
       </c>
-      <c r="M12" s="42" t="n">
+      <c r="M12" s="42">
         <v>43836</v>
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+    <row r="13" spans="1:1024">
+      <c r="A13" s="52">
         <v>45</v>
       </c>
-      <c r="B13" s="34" t="n">
+      <c r="B13" s="34">
         <v>11</v>
       </c>
-      <c r="C13" s="34" t="n">
+      <c r="C13" s="34">
         <v>6</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="65" t="n">
+      <c r="E13" s="65">
         <v>0</v>
       </c>
-      <c r="F13" s="65" t="n">
+      <c r="F13" s="65">
         <v>1000</v>
       </c>
-      <c r="G13" s="65" t="n">
+      <c r="G13" s="65">
         <v>9000</v>
       </c>
-      <c r="H13" s="65" t="n">
+      <c r="H13" s="65">
         <v>0</v>
       </c>
-      <c r="I13" s="65" t="n">
+      <c r="I13" s="65">
         <v>1000</v>
       </c>
-      <c r="J13" s="65" t="n">
+      <c r="J13" s="65">
         <v>9000</v>
       </c>
       <c r="K13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="48" t="n">
+      <c r="L13" s="48">
         <v>43837</v>
       </c>
-      <c r="M13" s="48" t="n">
+      <c r="M13" s="48">
         <v>43837</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="n">
+    <row r="14" spans="1:1024">
+      <c r="A14" s="52">
         <v>46</v>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="34">
         <v>12</v>
       </c>
-      <c r="C14" s="34" t="n">
+      <c r="C14" s="34">
         <v>6</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="65" t="n">
+      <c r="E14" s="65">
         <v>1000</v>
       </c>
-      <c r="F14" s="65" t="n">
+      <c r="F14" s="65">
         <v>0</v>
       </c>
-      <c r="G14" s="65" t="n">
+      <c r="G14" s="65">
         <v>1000</v>
       </c>
-      <c r="H14" s="65" t="n">
+      <c r="H14" s="65">
         <v>1000</v>
       </c>
-      <c r="I14" s="65" t="n">
+      <c r="I14" s="65">
         <v>0</v>
       </c>
-      <c r="J14" s="65" t="n">
+      <c r="J14" s="65">
         <v>1000</v>
       </c>
       <c r="K14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="48" t="n">
+      <c r="L14" s="48">
         <v>43837</v>
       </c>
-      <c r="M14" s="48" t="n">
+      <c r="M14" s="48">
         <v>43837</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3115,38 +3227,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9" style="34" customWidth="1"/>
+    <col min="6" max="6" width="9" style="49" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="49"/>
+    <col min="9" max="9" width="11.5" style="58"/>
+    <col min="10" max="11" width="11.5" style="49"/>
+    <col min="12" max="1020" width="11.5" style="34"/>
+    <col min="1021" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -3174,31 +3283,31 @@
       <c r="I2" s="60"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>10</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="42" t="n">
+      <c r="F3" s="42">
         <v>43834</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="42">
         <v>43834</v>
       </c>
       <c r="H3" s="42"/>
@@ -3206,83 +3315,82 @@
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:1024">
+      <c r="A4" s="52">
         <v>30</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="39">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="n">
+      <c r="D4" s="39">
         <v>3</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="42">
         <v>43836</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" s="42">
         <v>43836</v>
       </c>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+    <row r="5" spans="1:1024">
+      <c r="A5" s="52">
         <v>34</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="39">
         <v>4</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="42" t="n">
+      <c r="F5" s="42">
         <v>43836</v>
       </c>
-      <c r="G5" s="42" t="n">
+      <c r="G5" s="42">
         <v>43836</v>
       </c>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+    <row r="6" spans="1:1024">
+      <c r="A6" s="52">
         <v>38</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="39">
         <v>2</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="39">
         <v>5</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="42" t="n">
+      <c r="F6" s="42">
         <v>43836</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="42">
         <v>43836</v>
       </c>
       <c r="H6" s="51"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3290,39 +3398,36 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="49" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="58" width="37.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9" style="34" customWidth="1"/>
+    <col min="6" max="6" width="9" style="49" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="49"/>
+    <col min="9" max="9" width="7.33203125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" style="58" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="49"/>
+    <col min="13" max="1021" width="11.5" style="34"/>
+    <col min="1022" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -3352,15 +3457,15 @@
       </c>
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>22</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010013</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -3375,7 +3480,7 @@
       <c r="F3" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="42">
         <v>43836</v>
       </c>
       <c r="H3" s="51"/>
@@ -3384,10 +3489,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3395,37 +3499,36 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFF8AA97"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="68" width="28.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="69" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="70" width="39.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="68" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="68" width="9.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="8" style="68" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="71" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="67" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="70" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="68" customWidth="1"/>
+    <col min="8" max="1014" width="11.5" style="68"/>
+    <col min="1015" max="1025" width="11.5" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="72" t="s">
         <v>161</v>
       </c>
       <c r="C1" s="72"/>
     </row>
-    <row r="2" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="72" customFormat="1">
       <c r="A2" s="67" t="s">
         <v>88</v>
       </c>
@@ -3458,11 +3561,11 @@
       <c r="AMI2" s="71"/>
       <c r="AMJ2" s="71"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="n">
+    <row r="3" spans="1:1024">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="n">
+      <c r="B3" s="75">
         <v>10100010001</v>
       </c>
       <c r="C3" s="68" t="s">
@@ -3477,12 +3580,12 @@
       <c r="F3" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="77" t="n">
+      <c r="G3" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="75" t="n">
+    <row r="4" spans="1:1024">
+      <c r="B4" s="75">
         <v>2</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -3495,12 +3598,12 @@
       <c r="F4" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="77" t="n">
+      <c r="G4" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="75" t="n">
+    <row r="5" spans="1:1024">
+      <c r="B5" s="75">
         <v>3</v>
       </c>
       <c r="C5" s="68" t="s">
@@ -3513,12 +3616,12 @@
       <c r="F5" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="77" t="n">
+      <c r="G5" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="68" t="n">
+    <row r="6" spans="1:1024">
+      <c r="B6" s="68">
         <v>4</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -3533,12 +3636,12 @@
       <c r="F6" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="68" t="n">
+    <row r="7" spans="1:1024">
+      <c r="B7" s="68">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
@@ -3553,12 +3656,12 @@
       <c r="F7" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="68" t="n">
+    <row r="8" spans="1:1024" ht="48">
+      <c r="B8" s="68">
         <v>6</v>
       </c>
       <c r="C8" s="68" t="s">
@@ -3573,12 +3676,12 @@
       <c r="F8" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="68" t="n">
+    <row r="9" spans="1:1024">
+      <c r="B9" s="68">
         <v>7</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -3593,12 +3696,12 @@
       <c r="F9" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="77" t="n">
+      <c r="G9" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68" t="n">
+    <row r="10" spans="1:1024" ht="24">
+      <c r="B10" s="68">
         <v>8</v>
       </c>
       <c r="C10" s="68" t="s">
@@ -3613,19 +3716,19 @@
       <c r="F10" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="77" t="n">
+      <c r="G10" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="68" t="n">
+    <row r="11" spans="1:1024" ht="48">
+      <c r="B11" s="68">
         <v>9</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="79" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D11" s="79" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E11" s="76" t="s">
@@ -3634,99 +3737,98 @@
       <c r="F11" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="77" t="n">
+      <c r="G11" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68" t="n">
+    <row r="12" spans="1:1024">
+      <c r="B12" s="68">
         <v>10</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="75" t="n">
+      <c r="D12" s="75">
         <v>14</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="77" t="n">
+      <c r="G12" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="68" t="n">
+    <row r="13" spans="1:1024">
+      <c r="B13" s="68">
         <v>11</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="75" t="n">
+      <c r="D13" s="75">
         <v>15</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G13" s="77" t="n">
+      <c r="G13" s="77">
         <v>43831</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="68" t="n">
+    <row r="14" spans="1:1024">
+      <c r="B14" s="68">
         <v>12</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="75" t="n">
+      <c r="D14" s="75">
         <v>16</v>
       </c>
       <c r="F14" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="77" t="n">
+      <c r="G14" s="77">
         <v>43832</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="68" t="n">
+    <row r="15" spans="1:1024">
+      <c r="B15" s="68">
         <v>13</v>
       </c>
       <c r="G15" s="77"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="68" t="n">
+    <row r="16" spans="1:1024">
+      <c r="B16" s="68">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="68" t="n">
+    <row r="17" spans="2:2">
+      <c r="B17" s="68">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="68" t="n">
+    <row r="18" spans="2:2">
+      <c r="B18" s="68">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="68" t="n">
+    <row r="19" spans="2:2">
+      <c r="B19" s="68">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="68" t="n">
+    <row r="20" spans="2:2">
+      <c r="B20" s="68">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3734,184 +3836,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF72BF44"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.5" style="17"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="n">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
         <v>300</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="19">
         <v>5000</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="19">
         <v>4750</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="n">
-        <f aca="false">C5-C6</f>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <f>C5-C6</f>
         <v>250</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="n">
-        <f aca="false">E4-E7</f>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <f>E4-E7</f>
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="n">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="n">
-        <f aca="false">E8-E9</f>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <f>E8-E9</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
         <v>47</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="17">
         <v>300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="17">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="11" t="n">
+      <c r="C14"/>
+      <c r="D14" s="17">
         <v>4750</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="17">
         <v>250</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="22">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="n">
-        <f aca="false">E16-E17</f>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24">
+        <f>E16-E17</f>
         <v>-950</v>
       </c>
     </row>
@@ -3921,10 +4022,9 @@
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3932,293 +4032,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF00599D"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="36.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="17"/>
+    <col min="4" max="4" width="11.5"/>
+    <col min="5" max="5" width="11.5" style="17"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="17"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="25" customWidth="1"/>
+    <col min="10" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>11</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="19">
         <v>5000</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="19">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
         <v>19</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="19">
         <v>5000</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="19">
         <v>10000</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="19">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="19">
         <v>10000</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
         <v>40</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="19">
         <v>4750</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="19">
         <v>10000</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="19">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="19">
         <v>10000</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="14" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="28">
+      <c r="A18" s="3"/>
+      <c r="B18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="19">
         <v>300</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="28">
         <v>50</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="22" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="I18" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28" t="n">
-        <f aca="false">SUM(C16:C20)</f>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29">
+        <f>SUM(C16:C20)</f>
         <v>15050</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="28" t="n">
-        <f aca="false">SUM(G16:G20)+SUM(E16:E20)</f>
+      <c r="D21" s="26"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="29">
+        <f>SUM(G16:G20)+SUM(E16:E20)</f>
         <v>15050</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
         <v>48</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
       <c r="B25" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="31" t="n">
+      <c r="C25" s="31">
         <v>4750</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="31" t="n">
+      <c r="E25" s="31">
         <v>10000</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="31" t="n">
+      <c r="G25" s="31">
         <v>5000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
       <c r="B26" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="31" t="n">
+      <c r="C26" s="31">
         <v>9000</v>
       </c>
       <c r="D26" s="30"/>
@@ -4226,41 +4325,40 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
       <c r="B27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="31" t="n">
+      <c r="C27" s="31">
         <v>300</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="31" t="n">
+      <c r="E27" s="31">
         <v>-950</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="C28" s="11" t="n">
-        <f aca="false">SUM(C25:C27)</f>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="C28" s="17">
+        <f>SUM(C25:C27)</f>
         <v>14050</v>
       </c>
-      <c r="G28" s="11" t="n">
-        <f aca="false">SUM(G25:G27)+SUM(E25:E27)</f>
+      <c r="G28" s="17">
+        <f>SUM(G25:G27)+SUM(E25:E27)</f>
         <v>14050</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -4269,15 +4367,15 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4285,43 +4383,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFBCAED5"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="16.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="14.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="35" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="34" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="34" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="34" width="16.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="34" width="11.52"/>
+    <col min="1" max="1" width="8.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="34" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="17" style="34" customWidth="1"/>
+    <col min="16" max="1025" width="11.5" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15">
       <c r="B1" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" s="36" customFormat="1" ht="11">
       <c r="A2" s="37" t="s">
         <v>88</v>
       </c>
@@ -4365,14 +4462,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+    <row r="3" spans="1:15">
+      <c r="A3" s="33">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -4387,35 +4484,35 @@
       <c r="G3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="39" t="n">
+      <c r="H3" s="39">
         <v>1</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J3" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="42">
         <v>43831</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="42">
         <v>43831</v>
       </c>
       <c r="N3" s="41"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+    <row r="4" spans="1:15">
+      <c r="A4" s="33">
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -4430,35 +4527,35 @@
       <c r="G4" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="39" t="n">
+      <c r="H4" s="39">
         <v>2</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J4" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="42" t="n">
+      <c r="L4" s="42">
         <v>43831</v>
       </c>
-      <c r="M4" s="42" t="n">
+      <c r="M4" s="42">
         <v>43831</v>
       </c>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+    <row r="5" spans="1:15">
+      <c r="A5" s="33">
         <v>0</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="39">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="39">
         <v>1</v>
       </c>
       <c r="D5" s="39" t="s">
@@ -4473,35 +4570,35 @@
       <c r="G5" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="39" t="n">
+      <c r="H5" s="39">
         <v>3</v>
       </c>
       <c r="I5" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J5" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="42" t="n">
+      <c r="L5" s="42">
         <v>43831</v>
       </c>
-      <c r="M5" s="42" t="n">
+      <c r="M5" s="42">
         <v>43831</v>
       </c>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+    <row r="6" spans="1:15">
+      <c r="A6" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
       <c r="D6" s="39" t="s">
@@ -4516,35 +4613,35 @@
       <c r="G6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="39" t="n">
+      <c r="H6" s="39">
         <v>4</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J6" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="42" t="n">
+      <c r="L6" s="42">
         <v>43831</v>
       </c>
-      <c r="M6" s="42" t="n">
+      <c r="M6" s="42">
         <v>43831</v>
       </c>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+    <row r="7" spans="1:15">
+      <c r="A7" s="33">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -4559,35 +4656,35 @@
       <c r="G7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="39" t="n">
+      <c r="H7" s="39">
         <v>5</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J7" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="42" t="n">
+      <c r="L7" s="42">
         <v>43831</v>
       </c>
-      <c r="M7" s="42" t="n">
+      <c r="M7" s="42">
         <v>43831</v>
       </c>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="39">
         <v>6</v>
       </c>
-      <c r="C8" s="39" t="n">
+      <c r="C8" s="39">
         <v>1</v>
       </c>
       <c r="D8" s="39" t="s">
@@ -4602,35 +4699,35 @@
       <c r="G8" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="H8" s="39">
         <v>191</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J8" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="42" t="n">
+      <c r="L8" s="42">
         <v>43832</v>
       </c>
-      <c r="M8" s="42" t="n">
+      <c r="M8" s="42">
         <v>43832</v>
       </c>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15">
       <c r="A9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="39">
         <v>7</v>
       </c>
-      <c r="C9" s="39" t="n">
+      <c r="C9" s="39">
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
@@ -4645,35 +4742,35 @@
       <c r="G9" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="39" t="n">
+      <c r="H9" s="39">
         <v>131</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J9" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="42">
         <v>43832</v>
       </c>
-      <c r="M9" s="42" t="n">
+      <c r="M9" s="42">
         <v>43832</v>
       </c>
       <c r="N9" s="39"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15">
       <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="39">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="n">
+      <c r="C10" s="39">
         <v>1</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -4688,35 +4785,35 @@
       <c r="G10" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="39" t="n">
+      <c r="H10" s="39">
         <v>41</v>
       </c>
       <c r="I10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J10" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="42" t="n">
+      <c r="L10" s="42">
         <v>43833</v>
       </c>
-      <c r="M10" s="42" t="n">
+      <c r="M10" s="42">
         <v>43833</v>
       </c>
       <c r="N10" s="39"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+    <row r="11" spans="1:15">
+      <c r="A11" s="33">
         <v>13</v>
       </c>
-      <c r="B11" s="39" t="n">
+      <c r="B11" s="39">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="n">
+      <c r="C11" s="39">
         <v>1</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -4731,35 +4828,35 @@
       <c r="G11" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="39" t="n">
+      <c r="H11" s="39">
         <v>23</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J11" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="42">
         <v>43835</v>
       </c>
-      <c r="M11" s="42" t="n">
+      <c r="M11" s="42">
         <v>43835</v>
       </c>
       <c r="N11" s="39"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+    <row r="12" spans="1:15">
+      <c r="A12" s="33">
         <v>14</v>
       </c>
-      <c r="B12" s="39" t="n">
+      <c r="B12" s="39">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="n">
+      <c r="C12" s="39">
         <v>1</v>
       </c>
       <c r="D12" s="39" t="s">
@@ -4774,35 +4871,35 @@
       <c r="G12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="39" t="n">
+      <c r="H12" s="39">
         <v>11</v>
       </c>
       <c r="I12" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J12" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="42" t="n">
+      <c r="L12" s="42">
         <v>43835</v>
       </c>
-      <c r="M12" s="42" t="n">
+      <c r="M12" s="42">
         <v>43835</v>
       </c>
       <c r="N12" s="39"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+    <row r="13" spans="1:15">
+      <c r="A13" s="33">
         <v>14</v>
       </c>
-      <c r="B13" s="39" t="n">
+      <c r="B13" s="39">
         <v>11</v>
       </c>
-      <c r="C13" s="39" t="n">
+      <c r="C13" s="39">
         <v>1</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -4817,35 +4914,35 @@
       <c r="G13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="39" t="n">
+      <c r="H13" s="39">
         <v>1101</v>
       </c>
       <c r="I13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J13" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="42">
         <v>43835</v>
       </c>
-      <c r="M13" s="42" t="n">
+      <c r="M13" s="42">
         <v>43835</v>
       </c>
       <c r="N13" s="39"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="n">
+    <row r="14" spans="1:15">
+      <c r="A14" s="33">
         <v>21</v>
       </c>
-      <c r="B14" s="43" t="n">
+      <c r="B14" s="43">
         <v>12</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="43">
         <v>1</v>
       </c>
       <c r="D14" s="43" t="s">
@@ -4860,23 +4957,23 @@
       <c r="G14" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="43" t="n">
+      <c r="H14" s="43">
         <v>12</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="44" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J14" s="44" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="45" t="n">
+      <c r="L14" s="45">
         <v>43836</v>
       </c>
-      <c r="M14" s="45" t="n">
+      <c r="M14" s="45">
         <v>43836</v>
       </c>
       <c r="N14" s="43"/>
@@ -4884,14 +4981,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+    <row r="15" spans="1:15">
+      <c r="A15" s="33">
         <v>21</v>
       </c>
-      <c r="B15" s="39" t="n">
+      <c r="B15" s="39">
         <v>13</v>
       </c>
-      <c r="C15" s="39" t="n">
+      <c r="C15" s="39">
         <v>1</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -4906,35 +5003,35 @@
       <c r="G15" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="39" t="n">
+      <c r="H15" s="39">
         <v>1200001</v>
       </c>
       <c r="I15" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J15" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K15" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="42" t="n">
+      <c r="L15" s="42">
         <v>43836</v>
       </c>
-      <c r="M15" s="42" t="n">
+      <c r="M15" s="42">
         <v>43836</v>
       </c>
       <c r="N15" s="39"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15">
       <c r="A16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="43" t="n">
+      <c r="B16" s="43">
         <v>14</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="43">
         <v>1</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -4949,35 +5046,35 @@
       <c r="G16" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="43" t="n">
+      <c r="H16" s="43">
         <v>58</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="44" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J16" s="44" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="45" t="n">
+      <c r="L16" s="45">
         <v>43836</v>
       </c>
-      <c r="M16" s="45" t="n">
+      <c r="M16" s="45">
         <v>43836</v>
       </c>
       <c r="N16" s="43"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14">
       <c r="A17" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="43" t="n">
+      <c r="B17" s="43">
         <v>15</v>
       </c>
-      <c r="C17" s="43" t="n">
+      <c r="C17" s="43">
         <v>1</v>
       </c>
       <c r="D17" s="43" t="s">
@@ -4992,35 +5089,35 @@
       <c r="G17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="43" t="n">
+      <c r="H17" s="43">
         <v>381</v>
       </c>
       <c r="I17" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="44" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J17" s="44" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="45" t="n">
+      <c r="L17" s="45">
         <v>43836</v>
       </c>
-      <c r="M17" s="45" t="n">
+      <c r="M17" s="45">
         <v>43836</v>
       </c>
       <c r="N17" s="43"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14">
       <c r="A18" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="43" t="n">
+      <c r="B18" s="43">
         <v>16</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="43">
         <v>1</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -5035,35 +5132,35 @@
       <c r="G18" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="43" t="n">
+      <c r="H18" s="43">
         <v>382</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="44" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="J18" s="44" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="45" t="n">
+      <c r="L18" s="45">
         <v>43836</v>
       </c>
-      <c r="M18" s="45" t="n">
+      <c r="M18" s="45">
         <v>43836</v>
       </c>
       <c r="N18" s="39"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="n">
+    <row r="19" spans="1:14">
+      <c r="A19" s="33">
         <v>41</v>
       </c>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="34">
         <v>17</v>
       </c>
-      <c r="C19" s="34" t="n">
+      <c r="C19" s="34">
         <v>1</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -5078,7 +5175,7 @@
       <c r="G19" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="34" t="n">
+      <c r="H19" s="34">
         <v>351</v>
       </c>
       <c r="I19" s="34" t="s">
@@ -5090,21 +5187,21 @@
       <c r="K19" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="48" t="n">
+      <c r="L19" s="48">
         <v>43837</v>
       </c>
-      <c r="M19" s="48" t="n">
+      <c r="M19" s="48">
         <v>43837</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="n">
+    <row r="20" spans="1:14">
+      <c r="A20" s="33">
         <v>42</v>
       </c>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="34">
         <v>18</v>
       </c>
-      <c r="C20" s="34" t="n">
+      <c r="C20" s="34">
         <v>1</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -5119,7 +5216,7 @@
       <c r="G20" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="34" t="n">
+      <c r="H20" s="34">
         <v>35101</v>
       </c>
       <c r="I20" s="34" t="s">
@@ -5131,26 +5228,25 @@
       <c r="K20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L20" s="48" t="n">
+      <c r="L20" s="48">
         <v>43837</v>
       </c>
-      <c r="M20" s="48" t="n">
+      <c r="M20" s="48">
         <v>43837</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="34" t="n">
+    <row r="21" spans="1:14">
+      <c r="B21" s="34">
         <v>19</v>
       </c>
-      <c r="C21" s="34" t="n">
+      <c r="C21" s="34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5158,38 +5254,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="34" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="34" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col min="1" max="1" width="8.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="34" customWidth="1"/>
+    <col min="3" max="4" width="9.83203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="34" customWidth="1"/>
+    <col min="8" max="9" width="9" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="34" customWidth="1"/>
+    <col min="12" max="1021" width="11.5" style="34"/>
+    <col min="1022" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="37" t="s">
         <v>88</v>
       </c>
@@ -5223,15 +5316,15 @@
       <c r="K2" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
       <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -5240,8 +5333,8 @@
       <c r="D3" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="40" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="E3" s="40" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="39" t="s">
@@ -5251,19 +5344,19 @@
       <c r="H3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="42" t="n">
+      <c r="I3" s="42">
         <v>43833</v>
       </c>
-      <c r="J3" s="42" t="n">
+      <c r="J3" s="42">
         <v>43833</v>
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024">
       <c r="A4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -5272,8 +5365,8 @@
       <c r="D4" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="40" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="E4" s="40" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="39" t="s">
@@ -5285,24 +5378,23 @@
       <c r="H4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="42">
         <v>43833</v>
       </c>
-      <c r="J4" s="42" t="n">
+      <c r="J4" s="42">
         <v>43833</v>
       </c>
       <c r="K4" s="39"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1024">
       <c r="D14" s="34" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5310,40 +5402,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="49" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col min="1" max="1" width="8.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="34" customWidth="1"/>
+    <col min="12" max="1021" width="11.5" style="34"/>
+    <col min="1022" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="37" t="s">
         <v>88</v>
       </c>
@@ -5386,21 +5475,21 @@
       <c r="N2" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
       <c r="A3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="39">
         <v>11111</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -5409,7 +5498,7 @@
       <c r="F3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="39" t="n">
+      <c r="G3" s="39">
         <v>0</v>
       </c>
       <c r="H3" s="39" t="s">
@@ -5418,25 +5507,24 @@
       <c r="I3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="51" t="n">
+      <c r="J3" s="51">
         <v>60</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="42">
         <v>43834</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="42">
         <v>43834</v>
       </c>
       <c r="N3" s="39"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5444,46 +5532,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView topLeftCell="I1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="7.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="34" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="49" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="49" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="49" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="34" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="34" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="34" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="34" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="34" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="49" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="14" style="49" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="34" customWidth="1"/>
+    <col min="16" max="16" width="9" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="34" customWidth="1"/>
+    <col min="19" max="1025" width="11.5" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18">
       <c r="B1" s="36" t="s">
         <v>161</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" s="36" customFormat="1" ht="11">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -5539,17 +5624,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+    <row r="3" spans="1:18">
+      <c r="A3" s="52">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="53" t="n">
+      <c r="D3" s="53">
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -5561,7 +5646,7 @@
       <c r="G3" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="39" t="n">
+      <c r="H3" s="39">
         <v>1</v>
       </c>
       <c r="I3" s="39" t="s">
@@ -5571,37 +5656,37 @@
       <c r="K3" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="51" t="n">
+      <c r="L3" s="51">
         <v>5000</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="42">
         <v>43834</v>
       </c>
-      <c r="N3" s="42" t="n">
+      <c r="N3" s="42">
         <v>43834</v>
       </c>
       <c r="O3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="42" t="n">
+      <c r="P3" s="42">
         <v>43834</v>
       </c>
-      <c r="Q3" s="42" t="n">
+      <c r="Q3" s="42">
         <v>43834</v>
       </c>
       <c r="R3" s="39"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:18">
+      <c r="A4" s="52">
         <v>23</v>
       </c>
-      <c r="B4" s="54" t="n">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="55" t="n">
+      <c r="D4" s="55">
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
@@ -5613,7 +5698,7 @@
       <c r="G4" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="54" t="n">
+      <c r="H4" s="54">
         <v>1</v>
       </c>
       <c r="I4" s="54" t="s">
@@ -5623,31 +5708,30 @@
       <c r="K4" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="56" t="n">
+      <c r="L4" s="56">
         <v>300</v>
       </c>
-      <c r="M4" s="57" t="n">
+      <c r="M4" s="57">
         <v>43836</v>
       </c>
-      <c r="N4" s="57" t="n">
+      <c r="N4" s="57">
         <v>43836</v>
       </c>
       <c r="O4" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="57" t="n">
+      <c r="P4" s="57">
         <v>43836</v>
       </c>
-      <c r="Q4" s="57" t="n">
+      <c r="Q4" s="57">
         <v>43836</v>
       </c>
       <c r="R4" s="54"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5655,40 +5739,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
+    <sheetView topLeftCell="L1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="10.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="34" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="49" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="49" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="58" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="49" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="49" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="34" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="34" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="34" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="34" width="8.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="34" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="35"/>
+    <col min="6" max="6" width="8.83203125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="49" customWidth="1"/>
+    <col min="11" max="12" width="9" style="49" customWidth="1"/>
+    <col min="13" max="13" width="9" style="58" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9" style="34" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="34" customWidth="1"/>
+    <col min="20" max="1025" width="11.5" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19">
       <c r="B1" s="36" t="s">
         <v>181</v>
       </c>
@@ -5697,7 +5778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" s="36" customFormat="1" ht="11">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -5756,14 +5837,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+    <row r="3" spans="1:19">
+      <c r="A3" s="52">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -5784,7 +5865,7 @@
       <c r="I3" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="51" t="n">
+      <c r="J3" s="51">
         <v>50</v>
       </c>
       <c r="K3" s="42" t="s">
@@ -5793,10 +5874,10 @@
       <c r="L3" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="M3" s="62" t="n">
+      <c r="M3" s="62">
         <v>100</v>
       </c>
-      <c r="N3" s="51" t="n">
+      <c r="N3" s="51">
         <v>0</v>
       </c>
       <c r="O3" s="42" t="s">
@@ -5805,22 +5886,22 @@
       <c r="P3" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="42" t="n">
+      <c r="Q3" s="42">
         <v>43834</v>
       </c>
-      <c r="R3" s="42" t="n">
+      <c r="R3" s="42">
         <v>43834</v>
       </c>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+    <row r="4" spans="1:19">
+      <c r="A4" s="52">
         <v>24</v>
       </c>
-      <c r="B4" s="39" t="n">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="39">
         <v>2</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -5841,7 +5922,7 @@
       <c r="I4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="51" t="n">
+      <c r="J4" s="51">
         <v>60</v>
       </c>
       <c r="K4" s="51" t="s">
@@ -5850,10 +5931,10 @@
       <c r="L4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="62" t="n">
+      <c r="M4" s="62">
         <v>5</v>
       </c>
-      <c r="N4" s="51" t="n">
+      <c r="N4" s="51">
         <v>0</v>
       </c>
       <c r="O4" s="51" t="s">
@@ -5862,19 +5943,18 @@
       <c r="P4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="42" t="n">
+      <c r="Q4" s="42">
         <v>43836</v>
       </c>
-      <c r="R4" s="42" t="n">
+      <c r="R4" s="42">
         <v>43836</v>
       </c>
       <c r="S4" s="39"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5882,39 +5962,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="4.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="49" width="31.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="58" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="49" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="34" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="49"/>
+    <col min="8" max="8" width="31.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="58"/>
+    <col min="10" max="11" width="11.5" style="49"/>
+    <col min="12" max="1020" width="11.5" style="34"/>
+    <col min="1021" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024">
       <c r="B1" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="36" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>88</v>
       </c>
@@ -5938,19 +6015,19 @@
       <c r="I2" s="60"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="52">
         <v>4</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="39">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -5959,7 +6036,7 @@
       <c r="E3" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="39" t="n">
+      <c r="F3" s="39">
         <v>50</v>
       </c>
       <c r="G3" s="48"/>
@@ -5969,10 +6046,9 @@
       <c r="N3" s="48"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
